--- a/assets/sensor_db.xlsx
+++ b/assets/sensor_db.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris\Meine Ablage\Abschlussprojekt\assets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris\Desktop\Abschlussprojekt\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B21BA09A-67F8-4894-BD44-6529BF8D3B44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E99DE4A-48BD-4477-937E-0C4E9142662F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38400" yWindow="240" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="151">
   <si>
     <t>type_no</t>
   </si>
@@ -76,9 +76,6 @@
   </si>
   <si>
     <t>counter_evals</t>
-  </si>
-  <si>
-    <t>sensor_measurements_type</t>
   </si>
   <si>
     <t>url</t>
@@ -848,10 +845,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S32"/>
+  <dimension ref="A1:R32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="R1" sqref="R1:R1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -872,9 +869,10 @@
     <col min="14" max="14" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="24.28515625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="98.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -929,85 +927,82 @@
       <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>19</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>22</v>
       </c>
       <c r="E2" s="2">
         <v>50</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>28</v>
       </c>
       <c r="L2" s="2"/>
       <c r="M2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="N2" t="s">
         <v>29</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>30</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>31</v>
-      </c>
-      <c r="P2" t="s">
-        <v>32</v>
       </c>
       <c r="Q2">
         <v>2</v>
       </c>
-      <c r="S2" t="s">
+      <c r="R2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>36</v>
       </c>
       <c r="E3" s="2">
         <v>46</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H3" s="2">
         <v>100</v>
@@ -1016,101 +1011,101 @@
         <v>-30</v>
       </c>
       <c r="J3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>39</v>
       </c>
       <c r="L3" s="2"/>
       <c r="M3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="N3" t="s">
         <v>40</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>41</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>42</v>
       </c>
-      <c r="P3" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>45</v>
       </c>
       <c r="E4" s="2">
         <v>49</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G4" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="I4" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="J4" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="K4" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>50</v>
       </c>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" t="s">
+        <v>50</v>
+      </c>
+      <c r="O4" t="s">
         <v>51</v>
       </c>
-      <c r="O4" t="s">
-        <v>52</v>
-      </c>
       <c r="P4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q4">
         <v>2</v>
       </c>
-      <c r="S4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="R4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" t="s">
         <v>53</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>56</v>
       </c>
       <c r="E5" s="2">
         <v>27</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H5" s="2">
         <v>360</v>
@@ -1119,47 +1114,47 @@
         <v>0</v>
       </c>
       <c r="J5" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="K5" s="2" t="s">
         <v>58</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>59</v>
       </c>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
       <c r="N5" t="s">
+        <v>59</v>
+      </c>
+      <c r="O5" t="s">
         <v>60</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>61</v>
       </c>
-      <c r="P5" t="s">
+      <c r="Q5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>62</v>
       </c>
-      <c r="Q5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="B6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B6" t="s">
-        <v>54</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="D6" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E6" s="2">
         <v>30</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H6" s="2">
         <v>1</v>
@@ -1168,93 +1163,93 @@
         <v>0</v>
       </c>
       <c r="J6" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="L6" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="K6" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="L6" s="2" t="s">
+      <c r="M6" s="2">
+        <v>1</v>
+      </c>
+      <c r="P6" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>67</v>
       </c>
-      <c r="M6" s="2">
-        <v>1</v>
-      </c>
-      <c r="P6" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="B7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B7" t="s">
-        <v>54</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>69</v>
-      </c>
       <c r="D7" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E7" s="2">
         <v>24</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H7" s="2">
         <v>360</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J7" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="K7" s="2" t="s">
         <v>58</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>59</v>
       </c>
       <c r="L7" s="2"/>
       <c r="M7" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="N7" t="s">
+        <v>59</v>
+      </c>
+      <c r="P7" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="N7" t="s">
-        <v>60</v>
-      </c>
-      <c r="P7" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="B8" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="D8" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E8" s="2">
         <v>29</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H8" s="2">
         <v>0.3515625</v>
@@ -1263,96 +1258,96 @@
         <v>0</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L8" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="M8" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="M8" s="2" t="s">
+      <c r="P8" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q8">
+        <v>1</v>
+      </c>
+      <c r="R8" t="s">
         <v>75</v>
       </c>
-      <c r="P8" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q8">
-        <v>1</v>
-      </c>
-      <c r="S8" t="s">
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="B9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B9" t="s">
-        <v>54</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>78</v>
-      </c>
       <c r="D9" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E9" s="2">
         <v>29</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I9" s="2">
         <v>0</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M9" s="2"/>
       <c r="P9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Q9">
         <v>1</v>
       </c>
-      <c r="S9" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="R9" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>79</v>
+      </c>
+      <c r="B10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B10" t="s">
-        <v>54</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>81</v>
-      </c>
       <c r="D10" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E10" s="2">
         <v>32</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H10" s="2">
         <v>2.5</v>
@@ -1361,43 +1356,43 @@
         <v>0</v>
       </c>
       <c r="J10" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="L10" s="2" t="s">
         <v>66</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="L10" s="2" t="s">
-        <v>67</v>
       </c>
       <c r="M10" s="2"/>
       <c r="P10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Q10">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>83</v>
-      </c>
       <c r="D11" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E11" s="2">
         <v>27</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H11" s="2">
         <v>7.1999999999999995E-2</v>
@@ -1406,47 +1401,47 @@
         <v>0</v>
       </c>
       <c r="J11" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="K11" s="2" t="s">
         <v>58</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>59</v>
       </c>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
       <c r="N11" t="s">
+        <v>59</v>
+      </c>
+      <c r="O11" t="s">
         <v>60</v>
       </c>
-      <c r="O11" t="s">
+      <c r="P11" t="s">
         <v>61</v>
       </c>
-      <c r="P11" t="s">
-        <v>62</v>
-      </c>
       <c r="Q11">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="D12" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E12" s="2">
         <v>31</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H12" s="2">
         <v>1</v>
@@ -1455,46 +1450,46 @@
         <v>0</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M12" s="2"/>
       <c r="P12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Q12">
         <v>1</v>
       </c>
-      <c r="S12" t="s">
+      <c r="R12" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+      <c r="B13" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>88</v>
-      </c>
       <c r="D13" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E13" s="2">
         <v>34</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H13" s="2">
         <v>7.1999999999999995E-2</v>
@@ -1503,47 +1498,46 @@
         <v>0</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
       <c r="N13" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Q13" s="2">
         <v>1</v>
       </c>
       <c r="R13" s="2"/>
-      <c r="S13" s="2"/>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="C14" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="D14" s="2" t="s">
         <v>92</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>93</v>
       </c>
       <c r="E14" s="2">
         <v>74</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H14" s="2">
         <v>60</v>
@@ -1552,45 +1546,45 @@
         <v>800</v>
       </c>
       <c r="J14" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K14" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="K14" s="2" t="s">
-        <v>39</v>
       </c>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
       <c r="N14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q14">
         <v>1</v>
       </c>
-      <c r="S14" s="4"/>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="R14" s="4"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="D15" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E15" s="2">
         <v>75</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H15" s="2">
         <v>60</v>
@@ -1599,44 +1593,44 @@
         <v>800</v>
       </c>
       <c r="J15" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K15" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="K15" s="2" t="s">
-        <v>39</v>
       </c>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
       <c r="N15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q15">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>98</v>
-      </c>
       <c r="D16" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E16" s="2">
         <v>84</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H16" s="2">
         <v>5.1999999999999998E-2</v>
@@ -1645,47 +1639,46 @@
         <v>800</v>
       </c>
       <c r="J16" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K16" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="K16" s="2" t="s">
-        <v>39</v>
       </c>
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
       <c r="N16" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q16" s="2">
         <v>1</v>
       </c>
       <c r="R16" s="2"/>
-      <c r="S16" s="2"/>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>98</v>
+      </c>
+      <c r="B17" t="s">
+        <v>90</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B17" t="s">
-        <v>91</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>100</v>
-      </c>
       <c r="D17" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E17" s="2">
         <v>74</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H17" s="2">
         <v>60</v>
@@ -1694,49 +1687,49 @@
         <v>800</v>
       </c>
       <c r="J17" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K17" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="K17" s="2" t="s">
-        <v>39</v>
       </c>
       <c r="L17" s="2"/>
       <c r="M17" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="N17" t="s">
+        <v>59</v>
+      </c>
+      <c r="P17" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q17">
+        <v>1</v>
+      </c>
+      <c r="R17" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="N17" t="s">
-        <v>60</v>
-      </c>
-      <c r="P17" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q17">
-        <v>1</v>
-      </c>
-      <c r="S17" s="4" t="s">
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="B18" t="s">
+        <v>90</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B18" t="s">
-        <v>91</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>104</v>
-      </c>
       <c r="D18" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E18" s="2">
         <v>75</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H18" s="2">
         <v>60</v>
@@ -1745,49 +1738,49 @@
         <v>800</v>
       </c>
       <c r="J18" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K18" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="K18" s="2" t="s">
-        <v>39</v>
       </c>
       <c r="L18" s="2"/>
       <c r="M18" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="N18" t="s">
+        <v>59</v>
+      </c>
+      <c r="P18" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q18">
+        <v>1</v>
+      </c>
+      <c r="R18" t="s">
         <v>105</v>
       </c>
-      <c r="N18" t="s">
-        <v>60</v>
-      </c>
-      <c r="P18" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q18">
-        <v>1</v>
-      </c>
-      <c r="S18" t="s">
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="B19" t="s">
+        <v>90</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B19" t="s">
-        <v>91</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>108</v>
-      </c>
       <c r="D19" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E19" s="2">
         <v>196</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H19" s="2">
         <v>92</v>
@@ -1796,47 +1789,47 @@
         <v>600</v>
       </c>
       <c r="J19" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K19" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="K19" s="2" t="s">
-        <v>39</v>
       </c>
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
       <c r="N19" t="s">
+        <v>108</v>
+      </c>
+      <c r="P19" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q19">
+        <v>1</v>
+      </c>
+      <c r="R19" t="s">
         <v>109</v>
       </c>
-      <c r="P19" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q19">
-        <v>1</v>
-      </c>
-      <c r="S19" t="s">
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="B20" t="s">
+        <v>90</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B20" t="s">
-        <v>91</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>112</v>
-      </c>
       <c r="D20" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E20" s="2">
         <v>192</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H20" s="2">
         <v>52</v>
@@ -1845,44 +1838,44 @@
         <v>800</v>
       </c>
       <c r="J20" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K20" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="K20" s="2" t="s">
-        <v>39</v>
       </c>
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
       <c r="N20" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="P20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q20">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>112</v>
+      </c>
+      <c r="B21" t="s">
+        <v>90</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="B21" t="s">
-        <v>91</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>114</v>
-      </c>
       <c r="D21" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E21" s="2">
         <v>76</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H21" s="2">
         <v>60</v>
@@ -1891,49 +1884,49 @@
         <v>800</v>
       </c>
       <c r="J21" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K21" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="K21" s="2" t="s">
-        <v>39</v>
       </c>
       <c r="L21" s="2"/>
       <c r="M21" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="N21" t="s">
+        <v>59</v>
+      </c>
+      <c r="P21" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q21">
+        <v>1</v>
+      </c>
+      <c r="R21" t="s">
         <v>115</v>
       </c>
-      <c r="N21" t="s">
-        <v>60</v>
-      </c>
-      <c r="P21" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q21">
-        <v>1</v>
-      </c>
-      <c r="S21" t="s">
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="B22" t="s">
         <v>117</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="D22" s="2" t="s">
         <v>119</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>120</v>
       </c>
       <c r="E22" s="2">
         <v>11</v>
       </c>
       <c r="F22" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="G22" s="2" t="s">
         <v>121</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>122</v>
       </c>
       <c r="H22" s="2">
         <v>0.05</v>
@@ -1942,44 +1935,44 @@
         <v>0.2</v>
       </c>
       <c r="J22" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="K22" s="2" t="s">
         <v>123</v>
-      </c>
-      <c r="K22" s="2" t="s">
-        <v>124</v>
       </c>
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
       <c r="P22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q22">
         <v>1</v>
       </c>
-      <c r="S22" t="s">
+      <c r="R22" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="B23" t="s">
+        <v>117</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="B23" t="s">
-        <v>118</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>127</v>
-      </c>
       <c r="D23" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E23" s="2">
         <v>13</v>
       </c>
       <c r="F23" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="G23" s="2" t="s">
         <v>121</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>122</v>
       </c>
       <c r="H23" s="2">
         <v>9.7900000000000001E-2</v>
@@ -1988,44 +1981,44 @@
         <v>0.24</v>
       </c>
       <c r="J23" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="K23" s="2" t="s">
         <v>123</v>
-      </c>
-      <c r="K23" s="2" t="s">
-        <v>124</v>
       </c>
       <c r="L23" s="2"/>
       <c r="M23" s="2"/>
       <c r="P23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q23">
         <v>1</v>
       </c>
-      <c r="S23" t="s">
+      <c r="R23" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="B24" t="s">
+        <v>117</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="B24" t="s">
-        <v>118</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>130</v>
-      </c>
       <c r="D24" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E24" s="2">
         <v>12</v>
       </c>
       <c r="F24" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="G24" s="2" t="s">
         <v>121</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>122</v>
       </c>
       <c r="H24" s="2">
         <v>0.62</v>
@@ -2034,41 +2027,41 @@
         <v>0.21</v>
       </c>
       <c r="J24" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="K24" s="2" t="s">
         <v>123</v>
-      </c>
-      <c r="K24" s="2" t="s">
-        <v>124</v>
       </c>
       <c r="L24" s="2"/>
       <c r="M24" s="2"/>
       <c r="P24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q24">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>130</v>
+      </c>
+      <c r="B25" t="s">
+        <v>117</v>
+      </c>
+      <c r="C25" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="B25" t="s">
-        <v>118</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>132</v>
-      </c>
       <c r="D25" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E25" s="2">
         <v>194</v>
       </c>
       <c r="F25" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="G25" s="2" t="s">
         <v>121</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>122</v>
       </c>
       <c r="H25" s="2">
         <v>0.62</v>
@@ -2077,41 +2070,41 @@
         <v>0.21</v>
       </c>
       <c r="J25" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="K25" s="2" t="s">
         <v>123</v>
-      </c>
-      <c r="K25" s="2" t="s">
-        <v>124</v>
       </c>
       <c r="L25" s="2"/>
       <c r="M25" s="2"/>
       <c r="P25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q25">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>132</v>
+      </c>
+      <c r="B26" t="s">
+        <v>117</v>
+      </c>
+      <c r="C26" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="B26" t="s">
-        <v>118</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>134</v>
-      </c>
       <c r="D26" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E26" s="2">
         <v>195</v>
       </c>
       <c r="F26" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="G26" s="2" t="s">
         <v>121</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>122</v>
       </c>
       <c r="H26" s="2">
         <v>0.62</v>
@@ -2120,41 +2113,41 @@
         <v>0.21</v>
       </c>
       <c r="J26" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="K26" s="2" t="s">
         <v>123</v>
-      </c>
-      <c r="K26" s="2" t="s">
-        <v>124</v>
       </c>
       <c r="L26" s="2"/>
       <c r="M26" s="2"/>
       <c r="P26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q26">
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>134</v>
+      </c>
+      <c r="B27" t="s">
+        <v>117</v>
+      </c>
+      <c r="C27" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="B27" t="s">
-        <v>118</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>136</v>
-      </c>
       <c r="D27" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E27" s="2">
         <v>6</v>
       </c>
       <c r="F27" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="G27" s="2" t="s">
         <v>121</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>122</v>
       </c>
       <c r="H27" s="2">
         <v>4.5999999999999999E-2</v>
@@ -2163,43 +2156,43 @@
         <v>0.21</v>
       </c>
       <c r="J27" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="K27" s="2" t="s">
         <v>123</v>
-      </c>
-      <c r="K27" s="2" t="s">
-        <v>124</v>
       </c>
       <c r="L27" s="2"/>
       <c r="M27" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="P27" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>137</v>
       </c>
-      <c r="P27" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="B28" t="s">
+        <v>117</v>
+      </c>
+      <c r="C28" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="B28" t="s">
-        <v>118</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>139</v>
-      </c>
       <c r="D28" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E28" s="2">
         <v>184</v>
       </c>
       <c r="F28" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="G28" s="2" t="s">
         <v>121</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>122</v>
       </c>
       <c r="H28" s="2">
         <v>4.5999999999999999E-2</v>
@@ -2208,46 +2201,46 @@
         <v>0.21</v>
       </c>
       <c r="J28" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="K28" s="2" t="s">
         <v>123</v>
-      </c>
-      <c r="K28" s="2" t="s">
-        <v>124</v>
       </c>
       <c r="L28" s="2"/>
       <c r="M28" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="P28" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q28">
+        <v>1</v>
+      </c>
+      <c r="R28" t="s">
         <v>140</v>
       </c>
-      <c r="P28" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q28">
-        <v>1</v>
-      </c>
-      <c r="S28" t="s">
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="B29" t="s">
+        <v>117</v>
+      </c>
+      <c r="C29" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="B29" t="s">
-        <v>118</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>143</v>
-      </c>
       <c r="D29" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E29" s="2">
         <v>8</v>
       </c>
       <c r="F29" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="G29" s="2" t="s">
         <v>121</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>122</v>
       </c>
       <c r="H29" s="2">
         <v>7.8810000000000005E-2</v>
@@ -2256,77 +2249,76 @@
         <v>0.32</v>
       </c>
       <c r="J29" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="K29" s="2" t="s">
         <v>123</v>
-      </c>
-      <c r="K29" s="2" t="s">
-        <v>124</v>
       </c>
       <c r="L29" s="2"/>
       <c r="M29" s="2"/>
       <c r="P29" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q29">
         <v>1</v>
       </c>
-      <c r="S29" t="s">
+      <c r="R29" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A30" s="5" t="s">
+      <c r="B30" t="s">
+        <v>117</v>
+      </c>
+      <c r="C30" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="B30" t="s">
-        <v>118</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>146</v>
-      </c>
       <c r="D30" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E30" s="3">
         <v>14</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I30" s="3">
         <v>0</v>
       </c>
       <c r="J30" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="K30" s="3" t="s">
         <v>148</v>
-      </c>
-      <c r="K30" s="3" t="s">
-        <v>149</v>
       </c>
       <c r="L30" s="3"/>
       <c r="M30" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="N30" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O30" s="5"/>
       <c r="P30" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q30" s="5">
         <v>1</v>
       </c>
-      <c r="R30" s="5"/>
-      <c r="S30" s="5" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="R30" s="5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
@@ -2339,7 +2331,7 @@
       <c r="L31" s="2"/>
       <c r="M31" s="2"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
@@ -2354,7 +2346,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="S17" r:id="rId1" xr:uid="{820ED339-840D-49EE-82A3-DC7925C98850}"/>
+    <hyperlink ref="R17" r:id="rId1" xr:uid="{820ED339-840D-49EE-82A3-DC7925C98850}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
